--- a/week_report_2024/刷题.xlsx
+++ b/week_report_2024/刷题.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="17640"/>
+    <workbookView windowWidth="28800" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$162</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="353">
   <si>
     <t>分类</t>
   </si>
@@ -444,18 +444,27 @@
     <t>https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iv/description/</t>
   </si>
   <si>
+    <t>注意2层循环的顺序</t>
+  </si>
+  <si>
     <t>309. 买卖股票的最佳时机含冷冻期</t>
   </si>
   <si>
     <t>https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-cooldown/description/</t>
   </si>
   <si>
+    <t>递推公式不太熟</t>
+  </si>
+  <si>
     <t>714. 买卖股票的最佳时机含手续费</t>
   </si>
   <si>
     <t>https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/description/</t>
   </si>
   <si>
+    <t>注意fee的位置</t>
+  </si>
+  <si>
     <t>300. 最长递增子序列</t>
   </si>
   <si>
@@ -760,6 +769,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1047.</t>
     </r>
     <r>
@@ -788,6 +804,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>150.</t>
     </r>
     <r>
@@ -845,6 +868,15 @@
     <t>https://leetcode.cn/problems/decode-string/description/</t>
   </si>
   <si>
+    <t>单调栈</t>
+  </si>
+  <si>
+    <t>739. 每日温度</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/daily-temperatures/description/</t>
+  </si>
+  <si>
     <t>496. 下一个更大元素 I</t>
   </si>
   <si>
@@ -857,15 +889,6 @@
     <t>https://leetcode.cn/problems/next-greater-element-ii/description/</t>
   </si>
   <si>
-    <t>单调栈</t>
-  </si>
-  <si>
-    <t>739. 每日温度</t>
-  </si>
-  <si>
-    <t>https://leetcode.cn/problems/daily-temperatures/description/</t>
-  </si>
-  <si>
     <t>42. 接雨水</t>
   </si>
   <si>
@@ -887,30 +910,30 @@
     <t>https://leetcode.cn/problems/combinations/description/</t>
   </si>
   <si>
+    <t>17. 电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/letter-combinations-of-a-phone-number/description/</t>
+  </si>
+  <si>
+    <t>39. 组合总和</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/combination-sum/description/</t>
+  </si>
+  <si>
+    <t>40. 组合总和 II</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/combination-sum-ii/description/</t>
+  </si>
+  <si>
     <t>216. 组合总和 III</t>
   </si>
   <si>
     <t>https://leetcode.cn/problems/combination-sum-iii/description/</t>
   </si>
   <si>
-    <t>17. 电话号码的字母组合</t>
-  </si>
-  <si>
-    <t>https://leetcode.cn/problems/letter-combinations-of-a-phone-number/description/</t>
-  </si>
-  <si>
-    <t>39. 组合总和</t>
-  </si>
-  <si>
-    <t>https://leetcode.cn/problems/combination-sum/description/</t>
-  </si>
-  <si>
-    <t>40. 组合总和 II</t>
-  </si>
-  <si>
-    <t>https://leetcode.cn/problems/combination-sum-ii/description/</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1066,6 +1089,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>541.</t>
     </r>
     <r>
@@ -1094,6 +1124,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>151.</t>
     </r>
     <r>
@@ -1122,6 +1159,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>459.</t>
     </r>
     <r>
@@ -1153,6 +1197,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>203.</t>
     </r>
     <r>
@@ -1193,6 +1244,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>24.</t>
     </r>
     <r>
@@ -1236,6 +1294,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>242.</t>
     </r>
     <r>
@@ -1288,6 +1353,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>454.</t>
     </r>
     <r>
@@ -1324,6 +1396,9 @@
     <t>https://leetcode.cn/problems/binary-tree-preorder-traversal/description/</t>
   </si>
   <si>
+    <t>模板再背下</t>
+  </si>
+  <si>
     <t>94. 二叉树的中序遍历</t>
   </si>
   <si>
@@ -1349,6 +1424,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>226.</t>
     </r>
     <r>
@@ -1413,6 +1495,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>404.</t>
     </r>
     <r>
@@ -1441,6 +1530,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>513.</t>
     </r>
     <r>
@@ -1481,6 +1577,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>654.</t>
     </r>
     <r>
@@ -1509,6 +1612,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>617.</t>
     </r>
     <r>
@@ -1537,6 +1647,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>700.</t>
     </r>
     <r>
@@ -1571,6 +1688,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>530.</t>
     </r>
     <r>
@@ -1599,6 +1723,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>501.</t>
     </r>
     <r>
@@ -1657,6 +1788,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>108.</t>
     </r>
     <r>
@@ -1690,6 +1828,12 @@
     <t>https://leetcode.cn/problems/convert-bst-to-greater-tree/description/</t>
   </si>
   <si>
+    <t>208. 实现 Trie (前缀树)</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/implement-trie-prefix-tree/description/</t>
+  </si>
+  <si>
     <t>分治</t>
   </si>
   <si>
@@ -1711,6 +1855,12 @@
     <t>https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array-ii/description/</t>
   </si>
   <si>
+    <t>81. 搜索旋转排序数组 II</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/search-in-rotated-sorted-array-ii/description/</t>
+  </si>
+  <si>
     <t>69. x 的平方根</t>
   </si>
   <si>
@@ -1753,6 +1903,9 @@
     <t>https://leetcode.cn/problems/powx-n/description/</t>
   </si>
   <si>
+    <t>注意base情况</t>
+  </si>
+  <si>
     <t>540. 有序数组中的单一元素</t>
   </si>
   <si>
@@ -1778,6 +1931,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>324.</t>
     </r>
     <r>
@@ -1829,7 +1989,22 @@
     <t>https://leetcode.cn/problems/split-array-largest-sum/description/</t>
   </si>
   <si>
+    <t>23. 合并 K 个升序链表</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/merge-k-sorted-lists/description/</t>
+  </si>
+  <si>
     <t>https://leetcode.cn/studyplan/coding-interviews/</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/studyplan/top-interview-150/</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/studyplan/top-100-liked/</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/studyplan/cracking-the-coding-interview/</t>
   </si>
 </sst>
 </file>
@@ -1837,10 +2012,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1880,6 +2055,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1887,10 +2077,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1910,13 +2101,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1925,9 +2109,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1935,7 +2125,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1948,9 +2146,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1965,58 +2185,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2031,7 +2206,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2043,7 +2296,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,31 +2368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2091,127 +2392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2222,6 +2403,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2259,6 +2449,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2287,134 +2503,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2423,56 +2604,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2491,13 +2672,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2818,11 +3002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E161"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2850,7 +3034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" hidden="1" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2863,7 +3047,7 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2"/>
@@ -2888,7 +3072,7 @@
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2982,13 +3166,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" hidden="1" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3009,7 +3196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" hidden="1" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -3026,7 +3213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" hidden="1" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>45</v>
@@ -3041,7 +3228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" hidden="1" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>47</v>
@@ -3052,11 +3239,11 @@
       <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" hidden="1" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>50</v>
@@ -3071,7 +3258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" hidden="1" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>52</v>
@@ -3086,7 +3273,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" hidden="1" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>54</v>
@@ -3097,11 +3284,11 @@
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" hidden="1" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>57</v>
@@ -3112,9 +3299,9 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" hidden="1" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>59</v>
@@ -3125,11 +3312,11 @@
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" hidden="1" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>62</v>
@@ -3140,9 +3327,9 @@
       <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" hidden="1" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
         <v>64</v>
@@ -3153,11 +3340,11 @@
       <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" hidden="1" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
         <v>67</v>
@@ -3168,11 +3355,11 @@
       <c r="D29" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
         <v>69</v>
@@ -3183,9 +3370,9 @@
       <c r="D30" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" hidden="1" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
         <v>71</v>
@@ -3196,11 +3383,11 @@
       <c r="D31" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" hidden="1" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>74</v>
@@ -3211,11 +3398,11 @@
       <c r="D32" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" hidden="1" spans="1:5">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>76</v>
@@ -3226,9 +3413,9 @@
       <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" hidden="1" spans="1:5">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>78</v>
@@ -3239,8 +3426,9 @@
       <c r="D34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" hidden="1" spans="1:5">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>80</v>
@@ -3251,8 +3439,9 @@
       <c r="D35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" hidden="1" spans="1:5">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>82</v>
@@ -3263,8 +3452,9 @@
       <c r="D36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" hidden="1" spans="1:4">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
         <v>84</v>
@@ -3276,7 +3466,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" hidden="1" spans="1:5">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>87</v>
@@ -3287,32 +3477,35 @@
       <c r="D38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" hidden="1" spans="1:5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" hidden="1" spans="1:5">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" hidden="1" spans="1:5">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
         <v>91</v>
@@ -3323,95 +3516,109 @@
       <c r="D41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="1:5">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:5">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:5">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" hidden="1" spans="1:5">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" hidden="1" spans="1:5">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" hidden="1" spans="1:5">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" hidden="1" spans="1:5">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" hidden="1" spans="1:5">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -3419,1075 +3626,1416 @@
       <c r="D49" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" hidden="1" spans="1:5">
       <c r="A50" s="2"/>
       <c r="B50" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" hidden="1" spans="1:5">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" hidden="1" spans="1:5">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" hidden="1" spans="1:5">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
-      <c r="E53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" hidden="1" spans="1:5">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" hidden="1" spans="1:5">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" hidden="1" spans="1:5">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" hidden="1" spans="1:5">
       <c r="A57" s="2"/>
       <c r="B57" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2"/>
       <c r="B58" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" hidden="1" spans="1:5">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:5">
       <c r="A60" s="2"/>
       <c r="B60" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" hidden="1" spans="1:5">
       <c r="A63" s="2"/>
-      <c r="B63" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="B63" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" hidden="1" spans="1:5">
       <c r="A64" s="2"/>
-      <c r="B64" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="B64" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" hidden="1" spans="1:4">
       <c r="A65" s="2"/>
-      <c r="B65" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="B65" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" hidden="1" spans="1:4">
       <c r="A66" s="2"/>
-      <c r="B66" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="B66" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" hidden="1" spans="1:4">
       <c r="A67" s="2"/>
-      <c r="B67" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="B67" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="2"/>
-      <c r="B68" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="B68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="2"/>
-      <c r="B69" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="B69" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="2"/>
-      <c r="B70" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="B70" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="2"/>
       <c r="B71" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="6" t="s">
-        <v>154</v>
+      <c r="A72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2"/>
-      <c r="B73" s="6" t="s">
-        <v>156</v>
+      <c r="B73" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" hidden="1" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="B77" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" spans="1:4">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2" t="s">
-        <v>165</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" hidden="1" spans="1:4">
+      <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="1:4">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C80" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" hidden="1" spans="1:4">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>177</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="1:5">
       <c r="A82" s="2"/>
-      <c r="B82" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C82" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="B82" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" spans="1:4">
       <c r="A83" s="2"/>
-      <c r="B83" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C83" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="B83" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="1:4">
       <c r="A84" s="2"/>
-      <c r="B84" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C84" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="B84" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" hidden="1" spans="1:4">
       <c r="A85" s="2"/>
-      <c r="B85" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C85" t="s">
-        <v>179</v>
+      <c r="B85" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C86" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>187</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" hidden="1" spans="1:4">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C87" t="s">
-        <v>183</v>
+        <v>189</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C88" t="s">
-        <v>185</v>
+        <v>191</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" t="s">
-        <v>187</v>
+        <v>193</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C90" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" hidden="1" spans="1:4">
+      <c r="A91" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="B91" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>198</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" hidden="1" spans="1:4">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C92" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C93" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>200</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" hidden="1" spans="1:4">
+      <c r="A93" s="2"/>
+      <c r="B93" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" hidden="1" spans="1:5">
       <c r="A94" s="2"/>
-      <c r="B94" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" t="s">
-        <v>198</v>
+      <c r="B94" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2"/>
-      <c r="B95" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C95" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C96" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="B95" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" hidden="1" spans="1:4">
+      <c r="A96" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" hidden="1" spans="1:4">
       <c r="A97" s="2"/>
-      <c r="B97" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C97" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="B97" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" hidden="1" spans="1:4">
+      <c r="A98" s="2"/>
+      <c r="B98" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" hidden="1" spans="1:5">
       <c r="A99" s="2"/>
-      <c r="B99" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C99" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2"/>
-      <c r="B100" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C100" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="B99" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" hidden="1" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" hidden="1" spans="1:4">
       <c r="A101" s="2"/>
-      <c r="B101" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C101" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C102" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="B101" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" hidden="1" spans="1:4">
+      <c r="A102" s="2"/>
+      <c r="B102" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" hidden="1" spans="1:5">
       <c r="A103" s="2"/>
-      <c r="B103" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C103" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="B103" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" hidden="1" spans="1:4">
       <c r="A104" s="2"/>
-      <c r="B104" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C104" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="B104" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" hidden="1" spans="1:4">
       <c r="A105" s="2"/>
-      <c r="B105" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="2"/>
-      <c r="B106" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="B105" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" hidden="1" spans="1:5">
+      <c r="A106" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" hidden="1" spans="1:5">
       <c r="A107" s="2"/>
-      <c r="B107" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C107" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C108" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="B107" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" hidden="1" spans="1:4">
+      <c r="A108" s="2"/>
+      <c r="B108" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" hidden="1" spans="1:5">
       <c r="A109" s="2"/>
-      <c r="B109" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C109" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="B109" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" hidden="1" spans="1:5">
       <c r="A110" s="2"/>
-      <c r="B110" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C110" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="B110" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" hidden="1" spans="1:5">
       <c r="A111" s="2"/>
-      <c r="B111" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C111" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="2"/>
-      <c r="B112" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C112" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="B111" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" hidden="1" spans="1:5">
+      <c r="A112" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" hidden="1" spans="1:5">
       <c r="A113" s="2"/>
-      <c r="B113" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C113" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C114" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="B113" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="114" hidden="1" spans="1:5">
+      <c r="A114" s="2"/>
+      <c r="B114" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" hidden="1" spans="1:4">
       <c r="A115" s="2"/>
-      <c r="B115" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C115" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="B115" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" hidden="1" spans="1:4">
       <c r="A116" s="2"/>
-      <c r="B116" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C116" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="B116" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" hidden="1" spans="1:4">
       <c r="A117" s="2"/>
-      <c r="B117" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C117" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="B117" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" hidden="1" spans="1:4">
       <c r="A118" s="2"/>
-      <c r="B118" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C118" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="B118" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" hidden="1" spans="1:4">
       <c r="A119" s="2"/>
-      <c r="B119" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C119" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="B119" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" hidden="1" spans="1:4">
       <c r="A120" s="2"/>
-      <c r="B120" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C120" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="B120" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" hidden="1" spans="1:5">
       <c r="A121" s="2"/>
-      <c r="B121" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C121" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="B121" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" hidden="1" spans="1:5">
       <c r="A122" s="2"/>
-      <c r="B122" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C122" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="B122" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" hidden="1" spans="1:5">
       <c r="A123" s="2"/>
-      <c r="B123" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C123" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="B123" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" hidden="1" spans="1:4">
       <c r="A124" s="2"/>
-      <c r="B124" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C124" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="B124" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" hidden="1" spans="1:4">
       <c r="A125" s="2"/>
-      <c r="B125" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C125" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="B125" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" hidden="1" spans="1:4">
       <c r="A126" s="2"/>
-      <c r="B126" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C126" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="B126" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" hidden="1" spans="1:4">
       <c r="A127" s="2"/>
-      <c r="B127" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C127" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="B127" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" hidden="1" spans="1:4">
       <c r="A128" s="2"/>
-      <c r="B128" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C128" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="B128" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" hidden="1" spans="1:4">
       <c r="A129" s="2"/>
-      <c r="B129" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C129" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="B129" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" hidden="1" spans="1:4">
       <c r="A130" s="2"/>
-      <c r="B130" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C130" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="B130" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" hidden="1" spans="1:5">
       <c r="A131" s="2"/>
-      <c r="B131" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C131" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="B131" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" hidden="1" spans="1:4">
       <c r="A132" s="2"/>
-      <c r="B132" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C132" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="B132" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" hidden="1" spans="1:4">
       <c r="A133" s="2"/>
-      <c r="B133" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C133" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="B133" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" hidden="1" spans="1:5">
       <c r="A134" s="2"/>
-      <c r="B134" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C134" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="B134" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" hidden="1" spans="1:4">
       <c r="A135" s="2"/>
-      <c r="B135" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C135" t="s">
-        <v>284</v>
+      <c r="B135" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2"/>
-      <c r="B136" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C136" t="s">
-        <v>286</v>
+      <c r="B136" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2"/>
-      <c r="B137" s="6" t="s">
-        <v>287</v>
+      <c r="B137" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="C137" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="138" hidden="1" spans="1:4">
       <c r="A138" s="2"/>
-      <c r="B138" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C138" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="B138" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" hidden="1" spans="1:4">
       <c r="A139" s="2"/>
-      <c r="B139" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C139" t="s">
-        <v>292</v>
+      <c r="B139" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2"/>
-      <c r="B140" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C140" t="s">
-        <v>294</v>
+      <c r="B140" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2"/>
-      <c r="B141" s="8" t="s">
-        <v>295</v>
+      <c r="B141" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="C141" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="2"/>
-      <c r="B142" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C142" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C143" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="142" hidden="1" spans="1:5">
+      <c r="A142" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" hidden="1" spans="1:4">
+      <c r="A143" s="2"/>
+      <c r="B143" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" hidden="1" spans="1:4">
       <c r="A144" s="2"/>
-      <c r="B144" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C144" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="B144" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" hidden="1" spans="1:5">
       <c r="A145" s="2"/>
-      <c r="B145" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C145" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="B145" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="146" hidden="1" spans="1:4">
       <c r="A146" s="2"/>
-      <c r="B146" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C146" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="B146" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" hidden="1" spans="1:4">
       <c r="A147" s="2"/>
-      <c r="B147" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C147" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="B147" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" hidden="1" spans="1:5">
       <c r="A148" s="2"/>
-      <c r="B148" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C148" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="B148" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149" hidden="1" spans="1:5">
       <c r="A149" s="2"/>
-      <c r="B149" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C149" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="B149" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="150" hidden="1" spans="1:4">
       <c r="A150" s="2"/>
-      <c r="B150" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C150" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="B150" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" hidden="1" spans="1:4">
       <c r="A151" s="2"/>
-      <c r="B151" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C151" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="B151" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" hidden="1" spans="1:5">
       <c r="A152" s="2"/>
-      <c r="B152" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C152" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="B152" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" hidden="1" spans="1:4">
       <c r="A153" s="2"/>
-      <c r="B153" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C153" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="B153" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" hidden="1" spans="1:4">
       <c r="A154" s="2"/>
-      <c r="B154" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>323</v>
+      <c r="B154" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C155" t="s">
-        <v>325</v>
+      <c r="B155" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="6" t="s">
-        <v>326</v>
+      <c r="B156" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="C156" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="8" t="s">
-        <v>328</v>
+      <c r="B157" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="C157" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3">
-      <c r="B158" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C158" t="s">
-        <v>331</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="158" hidden="1" spans="2:4">
+      <c r="B158" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="6" t="s">
-        <v>332</v>
+      <c r="B159" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="C159" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="6" t="s">
-        <v>334</v>
+      <c r="B160" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="C160" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C161" t="s">
-        <v>337</v>
+      <c r="B161" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C162" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E161">
+  <autoFilter ref="A1:E162">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="11">
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="A19:A61"/>
-    <mergeCell ref="A62:A73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A108:A113"/>
-    <mergeCell ref="A114:A142"/>
-    <mergeCell ref="A143:A154"/>
+    <mergeCell ref="A62:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A112:A141"/>
+    <mergeCell ref="A142:A154"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://leetcode.cn/problems/assign-cookies/description/"/>
@@ -4534,124 +5082,218 @@
     <hyperlink ref="B47" r:id="rId40" display="1143. 最长公共子序列" tooltip="https://leetcode.cn/problems/longest-common-subsequence/"/>
     <hyperlink ref="B53" r:id="rId41" display="72. 编辑距离" tooltip="https://leetcode.cn/problems/edit-distance/"/>
     <hyperlink ref="B55" r:id="rId42" display="516. 最长回文子序列" tooltip="https://leetcode.cn/problems/longest-palindromic-subsequence/"/>
-    <hyperlink ref="B74" r:id="rId43" display="739. 每日温度" tooltip="https://leetcode.cn/problems/daily-temperatures/"/>
-    <hyperlink ref="B75" r:id="rId44" display="496. 下一个更大元素 I" tooltip="https://leetcode.cn/problems/next-greater-element-i/"/>
-    <hyperlink ref="B76" r:id="rId45" display="503. 下一个更大元素 II" tooltip="https://leetcode.cn/problems/next-greater-element-ii/"/>
-    <hyperlink ref="B77" r:id="rId46" display="42. 接雨水" tooltip="https://leetcode.cn/problems/trapping-rain-water/"/>
-    <hyperlink ref="B78" r:id="rId47" display="84. 柱状图中最大的矩形" tooltip="https://leetcode.cn/problems/largest-rectangle-in-histogram/"/>
-    <hyperlink ref="B79" r:id="rId48" display="77. 组合" tooltip="https://leetcode.cn/problems/combinations/"/>
-    <hyperlink ref="B80" r:id="rId49" display="216. 组合总和 III" tooltip="https://leetcode.cn/problems/combination-sum-iii/"/>
-    <hyperlink ref="B81" r:id="rId50" display="17. 电话号码的字母组合" tooltip="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/"/>
-    <hyperlink ref="B82" r:id="rId51" display="39. 组合总和" tooltip="https://leetcode.cn/problems/combination-sum/"/>
-    <hyperlink ref="B83" r:id="rId52" display="40. 组合总和 II" tooltip="https://leetcode.cn/problems/combination-sum-ii/"/>
-    <hyperlink ref="B86" r:id="rId53" display="78. 子集" tooltip="https://leetcode.cn/problems/subsets/"/>
-    <hyperlink ref="B87" r:id="rId54" display="90. 子集 II" tooltip="https://leetcode.cn/problems/subsets-ii/"/>
-    <hyperlink ref="B88" r:id="rId55" display="491. 非递减子序列" tooltip="https://leetcode.cn/problems/non-decreasing-subsequences/"/>
-    <hyperlink ref="B89" r:id="rId56" display="46. 全排列" tooltip="https://leetcode.cn/problems/permutations/"/>
-    <hyperlink ref="B90" r:id="rId57" display="47. 全排列 II" tooltip="https://leetcode.cn/problems/permutations-ii/"/>
-    <hyperlink ref="B91" r:id="rId58" display="51. N 皇后" tooltip="https://leetcode.cn/problems/n-queens/"/>
-    <hyperlink ref="B92" r:id="rId59" display="37. 解数独" tooltip="https://leetcode.cn/problems/sudoku-solver/"/>
-    <hyperlink ref="C19" r:id="rId60" display="https://leetcode.cn/problems/fibonacci-number/description/"/>
-    <hyperlink ref="C20" r:id="rId61" display="https://leetcode.cn/problems/climbing-stairs/description/"/>
-    <hyperlink ref="C21" r:id="rId62" display="https://leetcode.cn/problems/min-cost-climbing-stairs/description/"/>
-    <hyperlink ref="C22" r:id="rId63" display="https://leetcode.cn/problems/unique-paths/description/"/>
-    <hyperlink ref="C23" r:id="rId64" display="https://leetcode.cn/problems/unique-paths-ii/description/"/>
-    <hyperlink ref="C24" r:id="rId65" display="https://leetcode.cn/problems/integer-break/description/"/>
-    <hyperlink ref="C25" r:id="rId66" display="https://leetcode.cn/problems/unique-binary-search-trees/description/"/>
-    <hyperlink ref="C26" r:id="rId67" display="https://leetcode.cn/problems/partition-equal-subset-sum/description/"/>
-    <hyperlink ref="C27" r:id="rId68" display="https://leetcode.cn/problems/last-stone-weight-ii/description/"/>
-    <hyperlink ref="C28" r:id="rId69" display="https://leetcode.cn/problems/target-sum/description/"/>
-    <hyperlink ref="C29" r:id="rId70" display="https://leetcode.cn/problems/ones-and-zeroes/description/"/>
-    <hyperlink ref="C30" r:id="rId71" display="https://leetcode.cn/problems/coin-change-ii/description/"/>
-    <hyperlink ref="C31" r:id="rId72" display="https://leetcode.cn/problems/combination-sum-iv/description/"/>
-    <hyperlink ref="C32" r:id="rId73" display="https://leetcode.cn/problems/coin-change/description/"/>
-    <hyperlink ref="C33" r:id="rId74" display="https://leetcode.cn/problems/perfect-squares/description/"/>
-    <hyperlink ref="C34" r:id="rId75" display="https://leetcode.cn/problems/word-break/description/"/>
-    <hyperlink ref="B56" r:id="rId76" display="264. 丑数 II" tooltip="https://leetcode.cn/problems/ugly-number-ii/"/>
-    <hyperlink ref="C56" r:id="rId77" display="https://leetcode.cn/problems/ugly-number-ii/description/"/>
-    <hyperlink ref="C35" r:id="rId78" display="https://leetcode.cn/problems/house-robber/description/"/>
-    <hyperlink ref="C36" r:id="rId79" display="https://leetcode.cn/problems/house-robber-ii/description/"/>
-    <hyperlink ref="C37" r:id="rId80" display="https://leetcode.cn/problems/house-robber-iii/description/"/>
-    <hyperlink ref="C53" r:id="rId81" display="https://leetcode.cn/problems/edit-distance/description/"/>
-    <hyperlink ref="C52" r:id="rId82" display="https://leetcode.cn/problems/delete-operation-for-two-strings/description/"/>
-    <hyperlink ref="C44" r:id="rId83" display="https://leetcode.cn/problems/longest-increasing-subsequence/description/"/>
-    <hyperlink ref="C45" r:id="rId84" display="https://leetcode.cn/problems/longest-continuous-increasing-subsequence/description/"/>
-    <hyperlink ref="C46" r:id="rId85" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/description/"/>
-    <hyperlink ref="C47" r:id="rId86" display="https://leetcode.cn/problems/longest-common-subsequence/description/"/>
-    <hyperlink ref="C48" r:id="rId87" display="https://leetcode.cn/problems/uncrossed-lines/description/"/>
-    <hyperlink ref="C49" r:id="rId88" display="https://leetcode.cn/problems/maximum-subarray/description/"/>
-    <hyperlink ref="C50" r:id="rId89" display="https://leetcode.cn/problems/is-subsequence/description/"/>
-    <hyperlink ref="C51" r:id="rId90" display="https://leetcode.cn/problems/distinct-subsequences/description/"/>
-    <hyperlink ref="B57" r:id="rId91" display="91. 解码方法" tooltip="https://leetcode.cn/problems/decode-ways/"/>
-    <hyperlink ref="C54" r:id="rId92" display="https://leetcode.cn/problems/palindromic-substrings/description/"/>
-    <hyperlink ref="C55" r:id="rId93" display="https://leetcode.cn/problems/longest-palindromic-subsequence/description/"/>
-    <hyperlink ref="C57" r:id="rId94" display="https://leetcode.cn/problems/decode-ways/description/"/>
-    <hyperlink ref="C60" r:id="rId95" display="https://leetcode.cn/problems/nge-tou-zi-de-dian-shu-lcof/description/?envType=study-plan-v2&amp;envId=coding-interviews"/>
-    <hyperlink ref="C38" r:id="rId96" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/description/"/>
-    <hyperlink ref="C41" r:id="rId97" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iv/description/"/>
-    <hyperlink ref="C42" r:id="rId98" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-cooldown/description/"/>
-    <hyperlink ref="C43" r:id="rId99" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/description/"/>
-    <hyperlink ref="B62" r:id="rId100" display="232. 用栈实现队列" tooltip="https://leetcode.cn/problems/implement-queue-using-stacks/"/>
-    <hyperlink ref="B63" r:id="rId101" display="225. 用队列实现栈" tooltip="https://leetcode.cn/problems/implement-stack-using-queues/"/>
-    <hyperlink ref="B64" r:id="rId102" display="20. 有效的括号" tooltip="https://leetcode.cn/problems/valid-parentheses/"/>
-    <hyperlink ref="B67" r:id="rId103" display="239. 滑动窗口最大值" tooltip="https://leetcode.cn/problems/sliding-window-maximum/"/>
-    <hyperlink ref="B68" r:id="rId104" display="347. 前 K 个高频元素" tooltip="https://leetcode.cn/problems/top-k-frequent-elements/"/>
-    <hyperlink ref="B93" r:id="rId105" display="704. 二分查找" tooltip="https://leetcode.cn/problems/binary-search/"/>
-    <hyperlink ref="B94" r:id="rId106" display="27. 移除元素" tooltip="https://leetcode.cn/problems/remove-element/"/>
-    <hyperlink ref="B95" r:id="rId107" display="977. 有序数组的平方" tooltip="https://leetcode.cn/problems/squares-of-a-sorted-array/"/>
-    <hyperlink ref="B96" r:id="rId108" display="209. 长度最小的子数组" tooltip="https://leetcode.cn/problems/minimum-size-subarray-sum/"/>
-    <hyperlink ref="B97" r:id="rId109" display="59. 螺旋矩阵 II" tooltip="https://leetcode.cn/problems/spiral-matrix-ii/"/>
-    <hyperlink ref="B98" r:id="rId110" display="344. 反转字符串" tooltip="https://leetcode.cn/problems/reverse-string/"/>
-    <hyperlink ref="B103" r:id="rId111" display="707. 设计链表" tooltip="https://leetcode.cn/problems/design-linked-list"/>
-    <hyperlink ref="B104" r:id="rId112" display="206. 反转链表" tooltip="https://leetcode.cn/problems/reverse-linked-list"/>
-    <hyperlink ref="B106" r:id="rId113" display="19. 删除链表的倒数第 N 个结点" tooltip="https://leetcode.cn/problems/remove-nth-node-from-end-of-list"/>
-    <hyperlink ref="B107" r:id="rId114" display="142. 环形链表 II" tooltip="https://leetcode.cn/problems/linked-list-cycle-ii"/>
-    <hyperlink ref="B109" r:id="rId115" display="349. 两个数组的交集" tooltip="https://leetcode.cn/problems/intersection-of-two-arrays"/>
-    <hyperlink ref="B110" r:id="rId116" display="1. 两数之和" tooltip="https://leetcode.cn/problems/two-sum"/>
-    <hyperlink ref="B111" r:id="rId117" display="15. 三数之和" tooltip="https://leetcode.cn/problems/3sum"/>
-    <hyperlink ref="B112" r:id="rId118" display="18. 四数之和" tooltip="https://leetcode.cn/problems/4sum"/>
-    <hyperlink ref="B114" r:id="rId119" display="144. 二叉树的前序遍历" tooltip="https://leetcode.cn/problems/binary-tree-preorder-traversal/"/>
-    <hyperlink ref="B115" r:id="rId120" display="94. 二叉树的中序遍历" tooltip="https://leetcode.cn/problems/binary-tree-inorder-traversal/"/>
-    <hyperlink ref="B116" r:id="rId121" display="145. 二叉树的后序遍历" tooltip="https://leetcode.cn/problems/binary-tree-postorder-traversal/"/>
-    <hyperlink ref="B117" r:id="rId122" display="102. 二叉树的层序遍历" tooltip="https://leetcode.cn/problems/binary-tree-level-order-traversal/"/>
-    <hyperlink ref="B118" r:id="rId123" display="107. 二叉树的层序遍历 II" tooltip="https://leetcode.cn/problems/binary-tree-level-order-traversal-ii/"/>
-    <hyperlink ref="B120" r:id="rId124" display="101. 对称二叉树" tooltip="https://leetcode.cn/problems/symmetric-tree/"/>
-    <hyperlink ref="B121" r:id="rId125" display="104. 二叉树的最大深度" tooltip="https://leetcode.cn/problems/maximum-depth-of-binary-tree/"/>
-    <hyperlink ref="B122" r:id="rId126" display="111. 二叉树的最小深度" tooltip="https://leetcode.cn/problems/minimum-depth-of-binary-tree/"/>
-    <hyperlink ref="B123" r:id="rId127" display="222. 完全二叉树的节点个数" tooltip="https://leetcode.cn/problems/count-complete-tree-nodes/"/>
-    <hyperlink ref="B124" r:id="rId128" display="110. 平衡二叉树" tooltip="https://leetcode.cn/problems/balanced-binary-tree/"/>
-    <hyperlink ref="B125" r:id="rId129" display="257. 二叉树的所有路径" tooltip="https://leetcode.cn/problems/binary-tree-paths/"/>
-    <hyperlink ref="B128" r:id="rId130" display="112. 路径总和" tooltip="https://leetcode.cn/problems/path-sum/"/>
-    <hyperlink ref="B129" r:id="rId131" display="106. 从中序与后序遍历序列构造二叉树" tooltip="https://leetcode.cn/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
-    <hyperlink ref="B133" r:id="rId132" display="98. 验证二叉搜索树" tooltip="https://leetcode.cn/problems/validate-binary-search-tree/"/>
-    <hyperlink ref="B136" r:id="rId133" display="236. 二叉树的最近公共祖先" tooltip="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/"/>
-    <hyperlink ref="B137" r:id="rId134" display="235. 二叉搜索树的最近公共祖先" tooltip="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-search-tree/"/>
-    <hyperlink ref="B138" r:id="rId135" display="701. 二叉搜索树中的插入操作" tooltip="https://leetcode.cn/problems/insert-into-a-binary-search-tree/"/>
-    <hyperlink ref="B139" r:id="rId136" display="450. 删除二叉搜索树中的节点" tooltip="https://leetcode.cn/problems/delete-node-in-a-bst/"/>
-    <hyperlink ref="B140" r:id="rId137" display="669. 修剪二叉搜索树" tooltip="https://leetcode.cn/problems/trim-a-binary-search-tree/"/>
-    <hyperlink ref="B142" r:id="rId138" display="538. 把二叉搜索树转换为累加树" tooltip="https://leetcode.cn/problems/convert-bst-to-greater-tree/"/>
-    <hyperlink ref="B143" r:id="rId139" display="34. 在排序数组中查找元素的第一个和最后一个位置" tooltip="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/"/>
-    <hyperlink ref="B145" r:id="rId140" display="154. 寻找旋转排序数组中的最小值 II" tooltip="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array-ii/"/>
-    <hyperlink ref="B144" r:id="rId141" display="35. 搜索插入位置" tooltip="https://leetcode.cn/problems/search-insert-position/"/>
-    <hyperlink ref="B146" r:id="rId142" display="69. x 的平方根" tooltip="https://leetcode.cn/problems/sqrtx/"/>
-    <hyperlink ref="B147" r:id="rId143" display="面试题 10.09. 排序矩阵查找" tooltip="https://leetcode.cn/problems/sorted-matrix-search-lcci/"/>
-    <hyperlink ref="B148" r:id="rId144" display="378. 有序矩阵中第 K 小的元素" tooltip="https://leetcode.cn/problems/kth-smallest-element-in-a-sorted-matrix/"/>
-    <hyperlink ref="B149" r:id="rId145" display="287. 寻找重复数" tooltip="https://leetcode.cn/problems/find-the-duplicate-number/"/>
-    <hyperlink ref="B150" r:id="rId146" display="57. 插入区间" tooltip="https://leetcode.cn/problems/insert-interval/"/>
-    <hyperlink ref="B151" r:id="rId147" display="162. 寻找峰值" tooltip="https://leetcode.cn/problems/find-peak-element/"/>
-    <hyperlink ref="B152" r:id="rId148" display="50. Pow(x, n)" tooltip="https://leetcode.cn/problems/powx-n/"/>
-    <hyperlink ref="B153" r:id="rId149" display="540. 有序数组中的单一元素" tooltip="https://leetcode.cn/problems/single-element-in-a-sorted-array/"/>
-    <hyperlink ref="B154" r:id="rId150" display="LCR 170. 交易逆序对的总数" tooltip="https://leetcode.cn/problems/shu-zu-zhong-de-ni-xu-dui-lcof/"/>
-    <hyperlink ref="B69" r:id="rId151" display="LCR 147. 最小栈" tooltip="https://leetcode.cn/problems/bao-han-minhan-shu-de-zhan-lcof/"/>
-    <hyperlink ref="B70" r:id="rId152" display="面试题 03.05. 栈排序" tooltip="https://leetcode.cn/problems/sort-of-stacks-lcci/"/>
-    <hyperlink ref="B72" r:id="rId44" display="496. 下一个更大元素 I" tooltip="https://leetcode.cn/problems/next-greater-element-i/"/>
-    <hyperlink ref="B73" r:id="rId45" display="503. 下一个更大元素 II" tooltip="https://leetcode.cn/problems/next-greater-element-ii/"/>
-    <hyperlink ref="B155" r:id="rId153" display="3. 无重复字符的最长子串" tooltip="https://leetcode.cn/problems/longest-substring-without-repeating-characters/"/>
-    <hyperlink ref="B156" r:id="rId154" display="76. 最小覆盖子串" tooltip="https://leetcode.cn/problems/minimum-window-substring/"/>
-    <hyperlink ref="B158" r:id="rId155" display="5. 最长回文子串" tooltip="https://leetcode.cn/problems/longest-palindromic-substring/"/>
-    <hyperlink ref="B159" r:id="rId156" display="215. 数组中的第K个最大元素" tooltip="https://leetcode.cn/problems/kth-largest-element-in-an-array/"/>
-    <hyperlink ref="B160" r:id="rId157" display="LCR 143. 子结构判断" tooltip="https://leetcode.cn/problems/shu-de-zi-jie-gou-lcof/"/>
-    <hyperlink ref="B161" r:id="rId158" display="410. 分割数组的最大值" tooltip="https://leetcode.cn/problems/split-array-largest-sum/"/>
+    <hyperlink ref="B72" r:id="rId43" display="739. 每日温度" tooltip="https://leetcode.cn/problems/daily-temperatures/"/>
+    <hyperlink ref="B73" r:id="rId44" display="496. 下一个更大元素 I" tooltip="https://leetcode.cn/problems/next-greater-element-i/"/>
+    <hyperlink ref="B74" r:id="rId45" display="503. 下一个更大元素 II" tooltip="https://leetcode.cn/problems/next-greater-element-ii/"/>
+    <hyperlink ref="B75" r:id="rId46" display="42. 接雨水" tooltip="https://leetcode.cn/problems/trapping-rain-water/"/>
+    <hyperlink ref="B76" r:id="rId47" display="84. 柱状图中最大的矩形" tooltip="https://leetcode.cn/problems/largest-rectangle-in-histogram/"/>
+    <hyperlink ref="B77" r:id="rId48" display="77. 组合" tooltip="https://leetcode.cn/problems/combinations/"/>
+    <hyperlink ref="B78" r:id="rId49" display="17. 电话号码的字母组合" tooltip="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/"/>
+    <hyperlink ref="B79" r:id="rId50" display="39. 组合总和" tooltip="https://leetcode.cn/problems/combination-sum/"/>
+    <hyperlink ref="B80" r:id="rId51" display="40. 组合总和 II" tooltip="https://leetcode.cn/problems/combination-sum-ii/"/>
+    <hyperlink ref="B84" r:id="rId52" display="78. 子集" tooltip="https://leetcode.cn/problems/subsets/"/>
+    <hyperlink ref="B85" r:id="rId53" display="90. 子集 II" tooltip="https://leetcode.cn/problems/subsets-ii/"/>
+    <hyperlink ref="B86" r:id="rId54" display="491. 非递减子序列" tooltip="https://leetcode.cn/problems/non-decreasing-subsequences/"/>
+    <hyperlink ref="B87" r:id="rId55" display="46. 全排列" tooltip="https://leetcode.cn/problems/permutations/"/>
+    <hyperlink ref="B88" r:id="rId56" display="47. 全排列 II" tooltip="https://leetcode.cn/problems/permutations-ii/"/>
+    <hyperlink ref="B89" r:id="rId57" display="51. N 皇后" tooltip="https://leetcode.cn/problems/n-queens/"/>
+    <hyperlink ref="B90" r:id="rId58" display="37. 解数独" tooltip="https://leetcode.cn/problems/sudoku-solver/"/>
+    <hyperlink ref="C19" r:id="rId59" display="https://leetcode.cn/problems/fibonacci-number/description/"/>
+    <hyperlink ref="C20" r:id="rId60" display="https://leetcode.cn/problems/climbing-stairs/description/"/>
+    <hyperlink ref="C21" r:id="rId61" display="https://leetcode.cn/problems/min-cost-climbing-stairs/description/"/>
+    <hyperlink ref="C22" r:id="rId62" display="https://leetcode.cn/problems/unique-paths/description/"/>
+    <hyperlink ref="C23" r:id="rId63" display="https://leetcode.cn/problems/unique-paths-ii/description/"/>
+    <hyperlink ref="C24" r:id="rId64" display="https://leetcode.cn/problems/integer-break/description/"/>
+    <hyperlink ref="C25" r:id="rId65" display="https://leetcode.cn/problems/unique-binary-search-trees/description/"/>
+    <hyperlink ref="C26" r:id="rId66" display="https://leetcode.cn/problems/partition-equal-subset-sum/description/"/>
+    <hyperlink ref="C27" r:id="rId67" display="https://leetcode.cn/problems/last-stone-weight-ii/description/"/>
+    <hyperlink ref="C28" r:id="rId68" display="https://leetcode.cn/problems/target-sum/description/"/>
+    <hyperlink ref="C29" r:id="rId69" display="https://leetcode.cn/problems/ones-and-zeroes/description/"/>
+    <hyperlink ref="C30" r:id="rId70" display="https://leetcode.cn/problems/coin-change-ii/description/"/>
+    <hyperlink ref="C31" r:id="rId71" display="https://leetcode.cn/problems/combination-sum-iv/description/"/>
+    <hyperlink ref="C32" r:id="rId72" display="https://leetcode.cn/problems/coin-change/description/"/>
+    <hyperlink ref="C33" r:id="rId73" display="https://leetcode.cn/problems/perfect-squares/description/"/>
+    <hyperlink ref="C34" r:id="rId74" display="https://leetcode.cn/problems/word-break/description/"/>
+    <hyperlink ref="B56" r:id="rId75" display="264. 丑数 II" tooltip="https://leetcode.cn/problems/ugly-number-ii/"/>
+    <hyperlink ref="C56" r:id="rId76" display="https://leetcode.cn/problems/ugly-number-ii/description/"/>
+    <hyperlink ref="C35" r:id="rId77" display="https://leetcode.cn/problems/house-robber/description/"/>
+    <hyperlink ref="C36" r:id="rId78" display="https://leetcode.cn/problems/house-robber-ii/description/"/>
+    <hyperlink ref="C37" r:id="rId79" display="https://leetcode.cn/problems/house-robber-iii/description/"/>
+    <hyperlink ref="C53" r:id="rId80" display="https://leetcode.cn/problems/edit-distance/description/"/>
+    <hyperlink ref="C52" r:id="rId81" display="https://leetcode.cn/problems/delete-operation-for-two-strings/description/"/>
+    <hyperlink ref="C44" r:id="rId82" display="https://leetcode.cn/problems/longest-increasing-subsequence/description/"/>
+    <hyperlink ref="C45" r:id="rId83" display="https://leetcode.cn/problems/longest-continuous-increasing-subsequence/description/"/>
+    <hyperlink ref="C46" r:id="rId84" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/description/"/>
+    <hyperlink ref="C47" r:id="rId85" display="https://leetcode.cn/problems/longest-common-subsequence/description/"/>
+    <hyperlink ref="C48" r:id="rId86" display="https://leetcode.cn/problems/uncrossed-lines/description/"/>
+    <hyperlink ref="C49" r:id="rId87" display="https://leetcode.cn/problems/maximum-subarray/description/"/>
+    <hyperlink ref="C50" r:id="rId88" display="https://leetcode.cn/problems/is-subsequence/description/"/>
+    <hyperlink ref="C51" r:id="rId89" display="https://leetcode.cn/problems/distinct-subsequences/description/"/>
+    <hyperlink ref="B57" r:id="rId90" display="91. 解码方法" tooltip="https://leetcode.cn/problems/decode-ways/"/>
+    <hyperlink ref="C54" r:id="rId91" display="https://leetcode.cn/problems/palindromic-substrings/description/"/>
+    <hyperlink ref="C55" r:id="rId92" display="https://leetcode.cn/problems/longest-palindromic-subsequence/description/"/>
+    <hyperlink ref="C57" r:id="rId93" display="https://leetcode.cn/problems/decode-ways/description/"/>
+    <hyperlink ref="C60" r:id="rId94" display="https://leetcode.cn/problems/nge-tou-zi-de-dian-shu-lcof/description/?envType=study-plan-v2&amp;envId=coding-interviews"/>
+    <hyperlink ref="C38" r:id="rId95" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/description/"/>
+    <hyperlink ref="C41" r:id="rId96" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iv/description/"/>
+    <hyperlink ref="C42" r:id="rId97" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-cooldown/description/"/>
+    <hyperlink ref="C43" r:id="rId98" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/description/"/>
+    <hyperlink ref="B62" r:id="rId99" display="232. 用栈实现队列" tooltip="https://leetcode.cn/problems/implement-queue-using-stacks/"/>
+    <hyperlink ref="B63" r:id="rId100" display="225. 用队列实现栈" tooltip="https://leetcode.cn/problems/implement-stack-using-queues/"/>
+    <hyperlink ref="B64" r:id="rId101" display="20. 有效的括号" tooltip="https://leetcode.cn/problems/valid-parentheses/"/>
+    <hyperlink ref="B67" r:id="rId102" display="239. 滑动窗口最大值" tooltip="https://leetcode.cn/problems/sliding-window-maximum/"/>
+    <hyperlink ref="B68" r:id="rId103" display="347. 前 K 个高频元素" tooltip="https://leetcode.cn/problems/top-k-frequent-elements/"/>
+    <hyperlink ref="B91" r:id="rId104" display="704. 二分查找" tooltip="https://leetcode.cn/problems/binary-search/"/>
+    <hyperlink ref="B92" r:id="rId105" display="27. 移除元素" tooltip="https://leetcode.cn/problems/remove-element/"/>
+    <hyperlink ref="B93" r:id="rId106" display="977. 有序数组的平方" tooltip="https://leetcode.cn/problems/squares-of-a-sorted-array/"/>
+    <hyperlink ref="B94" r:id="rId107" display="209. 长度最小的子数组" tooltip="https://leetcode.cn/problems/minimum-size-subarray-sum/"/>
+    <hyperlink ref="B95" r:id="rId108" display="59. 螺旋矩阵 II" tooltip="https://leetcode.cn/problems/spiral-matrix-ii/"/>
+    <hyperlink ref="B96" r:id="rId109" display="344. 反转字符串" tooltip="https://leetcode.cn/problems/reverse-string/"/>
+    <hyperlink ref="B101" r:id="rId110" display="707. 设计链表" tooltip="https://leetcode.cn/problems/design-linked-list"/>
+    <hyperlink ref="B102" r:id="rId111" display="206. 反转链表" tooltip="https://leetcode.cn/problems/reverse-linked-list"/>
+    <hyperlink ref="B104" r:id="rId112" display="19. 删除链表的倒数第 N 个结点" tooltip="https://leetcode.cn/problems/remove-nth-node-from-end-of-list"/>
+    <hyperlink ref="B105" r:id="rId113" display="142. 环形链表 II" tooltip="https://leetcode.cn/problems/linked-list-cycle-ii"/>
+    <hyperlink ref="B107" r:id="rId114" display="349. 两个数组的交集" tooltip="https://leetcode.cn/problems/intersection-of-two-arrays"/>
+    <hyperlink ref="B108" r:id="rId115" display="1. 两数之和" tooltip="https://leetcode.cn/problems/two-sum"/>
+    <hyperlink ref="B109" r:id="rId116" display="15. 三数之和" tooltip="https://leetcode.cn/problems/3sum"/>
+    <hyperlink ref="B110" r:id="rId117" display="18. 四数之和" tooltip="https://leetcode.cn/problems/4sum"/>
+    <hyperlink ref="B112" r:id="rId118" display="144. 二叉树的前序遍历" tooltip="https://leetcode.cn/problems/binary-tree-preorder-traversal/"/>
+    <hyperlink ref="B113" r:id="rId119" display="94. 二叉树的中序遍历" tooltip="https://leetcode.cn/problems/binary-tree-inorder-traversal/"/>
+    <hyperlink ref="B114" r:id="rId120" display="145. 二叉树的后序遍历" tooltip="https://leetcode.cn/problems/binary-tree-postorder-traversal/"/>
+    <hyperlink ref="B115" r:id="rId121" display="102. 二叉树的层序遍历" tooltip="https://leetcode.cn/problems/binary-tree-level-order-traversal/"/>
+    <hyperlink ref="B116" r:id="rId122" display="107. 二叉树的层序遍历 II" tooltip="https://leetcode.cn/problems/binary-tree-level-order-traversal-ii/"/>
+    <hyperlink ref="B118" r:id="rId123" display="101. 对称二叉树" tooltip="https://leetcode.cn/problems/symmetric-tree/"/>
+    <hyperlink ref="B119" r:id="rId124" display="104. 二叉树的最大深度" tooltip="https://leetcode.cn/problems/maximum-depth-of-binary-tree/"/>
+    <hyperlink ref="B120" r:id="rId125" display="111. 二叉树的最小深度" tooltip="https://leetcode.cn/problems/minimum-depth-of-binary-tree/"/>
+    <hyperlink ref="B121" r:id="rId126" display="222. 完全二叉树的节点个数" tooltip="https://leetcode.cn/problems/count-complete-tree-nodes/"/>
+    <hyperlink ref="B122" r:id="rId127" display="110. 平衡二叉树" tooltip="https://leetcode.cn/problems/balanced-binary-tree/"/>
+    <hyperlink ref="B123" r:id="rId128" display="257. 二叉树的所有路径" tooltip="https://leetcode.cn/problems/binary-tree-paths/"/>
+    <hyperlink ref="B126" r:id="rId129" display="112. 路径总和" tooltip="https://leetcode.cn/problems/path-sum/"/>
+    <hyperlink ref="B127" r:id="rId130" display="106. 从中序与后序遍历序列构造二叉树" tooltip="https://leetcode.cn/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
+    <hyperlink ref="B131" r:id="rId131" display="98. 验证二叉搜索树" tooltip="https://leetcode.cn/problems/validate-binary-search-tree/"/>
+    <hyperlink ref="B134" r:id="rId132" display="236. 二叉树的最近公共祖先" tooltip="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/"/>
+    <hyperlink ref="B135" r:id="rId133" display="235. 二叉搜索树的最近公共祖先" tooltip="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-search-tree/"/>
+    <hyperlink ref="B136" r:id="rId134" display="701. 二叉搜索树中的插入操作" tooltip="https://leetcode.cn/problems/insert-into-a-binary-search-tree/"/>
+    <hyperlink ref="B137" r:id="rId135" display="450. 删除二叉搜索树中的节点" tooltip="https://leetcode.cn/problems/delete-node-in-a-bst/"/>
+    <hyperlink ref="B138" r:id="rId136" display="669. 修剪二叉搜索树" tooltip="https://leetcode.cn/problems/trim-a-binary-search-tree/"/>
+    <hyperlink ref="B140" r:id="rId137" display="538. 把二叉搜索树转换为累加树" tooltip="https://leetcode.cn/problems/convert-bst-to-greater-tree/"/>
+    <hyperlink ref="B142" r:id="rId138" display="34. 在排序数组中查找元素的第一个和最后一个位置" tooltip="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/"/>
+    <hyperlink ref="B144" r:id="rId139" display="154. 寻找旋转排序数组中的最小值 II" tooltip="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array-ii/"/>
+    <hyperlink ref="B143" r:id="rId140" display="35. 搜索插入位置" tooltip="https://leetcode.cn/problems/search-insert-position/"/>
+    <hyperlink ref="B146" r:id="rId141" display="69. x 的平方根" tooltip="https://leetcode.cn/problems/sqrtx/"/>
+    <hyperlink ref="B147" r:id="rId142" display="面试题 10.09. 排序矩阵查找" tooltip="https://leetcode.cn/problems/sorted-matrix-search-lcci/"/>
+    <hyperlink ref="B148" r:id="rId143" display="378. 有序矩阵中第 K 小的元素" tooltip="https://leetcode.cn/problems/kth-smallest-element-in-a-sorted-matrix/"/>
+    <hyperlink ref="B149" r:id="rId144" display="287. 寻找重复数" tooltip="https://leetcode.cn/problems/find-the-duplicate-number/"/>
+    <hyperlink ref="B150" r:id="rId145" display="57. 插入区间" tooltip="https://leetcode.cn/problems/insert-interval/"/>
+    <hyperlink ref="B151" r:id="rId146" display="162. 寻找峰值" tooltip="https://leetcode.cn/problems/find-peak-element/"/>
+    <hyperlink ref="B152" r:id="rId147" display="50. Pow(x, n)" tooltip="https://leetcode.cn/problems/powx-n/"/>
+    <hyperlink ref="B153" r:id="rId148" display="540. 有序数组中的单一元素" tooltip="https://leetcode.cn/problems/single-element-in-a-sorted-array/"/>
+    <hyperlink ref="B154" r:id="rId149" display="LCR 170. 交易逆序对的总数" tooltip="https://leetcode.cn/problems/shu-zu-zhong-de-ni-xu-dui-lcof/"/>
+    <hyperlink ref="B69" r:id="rId150" display="LCR 147. 最小栈" tooltip="https://leetcode.cn/problems/bao-han-minhan-shu-de-zhan-lcof/"/>
+    <hyperlink ref="B70" r:id="rId151" display="面试题 03.05. 栈排序" tooltip="https://leetcode.cn/problems/sort-of-stacks-lcci/"/>
+    <hyperlink ref="B155" r:id="rId152" display="3. 无重复字符的最长子串" tooltip="https://leetcode.cn/problems/longest-substring-without-repeating-characters/"/>
+    <hyperlink ref="B156" r:id="rId153" display="76. 最小覆盖子串" tooltip="https://leetcode.cn/problems/minimum-window-substring/"/>
+    <hyperlink ref="B158" r:id="rId154" display="5. 最长回文子串" tooltip="https://leetcode.cn/problems/longest-palindromic-substring/"/>
+    <hyperlink ref="B159" r:id="rId155" display="215. 数组中的第K个最大元素" tooltip="https://leetcode.cn/problems/kth-largest-element-in-an-array/"/>
+    <hyperlink ref="B160" r:id="rId156" display="LCR 143. 子结构判断" tooltip="https://leetcode.cn/problems/shu-de-zi-jie-gou-lcof/"/>
+    <hyperlink ref="B161" r:id="rId157" display="410. 分割数组的最大值" tooltip="https://leetcode.cn/problems/split-array-largest-sum/"/>
+    <hyperlink ref="C39" r:id="rId158" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/description/"/>
+    <hyperlink ref="C40" r:id="rId159" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/description/"/>
+    <hyperlink ref="C59" r:id="rId160" display="https://leetcode.cn/problems/zui-chang-bu-han-zhong-fu-zi-fu-de-zi-zi-fu-chuan-lcof/description/?envType=study-plan-v2&amp;envId=coding-interviews"/>
+    <hyperlink ref="C62" r:id="rId161" display="https://leetcode.cn/problems/implement-queue-using-stacks/description/"/>
+    <hyperlink ref="C63" r:id="rId162" display="https://leetcode.cn/problems/implement-stack-using-queues/description/"/>
+    <hyperlink ref="C64" r:id="rId163" display="https://leetcode.cn/problems/valid-parentheses/description/"/>
+    <hyperlink ref="C65" r:id="rId164" display="https://leetcode.cn/problems/remove-all-adjacent-duplicates-in-string/description/"/>
+    <hyperlink ref="C66" r:id="rId165" display="https://leetcode.cn/problems/evaluate-reverse-polish-notation/description/"/>
+    <hyperlink ref="C67" r:id="rId166" display="https://leetcode.cn/problems/sliding-window-maximum/description/"/>
+    <hyperlink ref="C71" r:id="rId167" display="https://leetcode.cn/problems/decode-string/description/"/>
+    <hyperlink ref="C16" r:id="rId168" display="https://leetcode.cn/problems/merge-intervals/description/"/>
+    <hyperlink ref="C96" r:id="rId169" display="https://leetcode.cn/problems/reverse-string/description/"/>
+    <hyperlink ref="C97" r:id="rId170" display="https://leetcode.cn/problems/reverse-string-ii/description/"/>
+    <hyperlink ref="C98" r:id="rId171" display="https://leetcode.cn/problems/reverse-words-in-a-string/description/"/>
+    <hyperlink ref="C99" r:id="rId172" display="https://leetcode.cn/problems/repeated-substring-pattern/description/"/>
+    <hyperlink ref="C77" r:id="rId173" display="https://leetcode.cn/problems/combinations/description/"/>
+    <hyperlink ref="C78" r:id="rId174" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/description/"/>
+    <hyperlink ref="C79" r:id="rId175" display="https://leetcode.cn/problems/combination-sum/description/"/>
+    <hyperlink ref="C80" r:id="rId176" display="https://leetcode.cn/problems/combination-sum-ii/description/"/>
+    <hyperlink ref="B81" r:id="rId177" display="216. 组合总和 III" tooltip="https://leetcode.cn/problems/combination-sum-iii/"/>
+    <hyperlink ref="C81" r:id="rId178" display="https://leetcode.cn/problems/combination-sum-iii/description/"/>
+    <hyperlink ref="C82" r:id="rId179" display="https://leetcode.cn/problems/palindrome-partitioning/description/"/>
+    <hyperlink ref="C83" r:id="rId180" display="https://leetcode.cn/problems/restore-ip-addresses/description/"/>
+    <hyperlink ref="C84" r:id="rId181" display="https://leetcode.cn/problems/subsets/description/"/>
+    <hyperlink ref="C85" r:id="rId182" display="https://leetcode.cn/problems/subsets-ii/description/"/>
+    <hyperlink ref="C87" r:id="rId183" display="https://leetcode.cn/problems/permutations/description/"/>
+    <hyperlink ref="C88" r:id="rId184" display="https://leetcode.cn/problems/permutations-ii/description/"/>
+    <hyperlink ref="C86" r:id="rId185" display="https://leetcode.cn/problems/non-decreasing-subsequences/description/"/>
+    <hyperlink ref="C91" r:id="rId186" display="https://leetcode.cn/problems/binary-search/description/"/>
+    <hyperlink ref="C92" r:id="rId187" display="https://leetcode.cn/problems/remove-element/description/"/>
+    <hyperlink ref="C93" r:id="rId188" display="https://leetcode.cn/problems/squares-of-a-sorted-array/description/"/>
+    <hyperlink ref="C94" r:id="rId189" display="https://leetcode.cn/problems/minimum-size-subarray-sum/description/"/>
+    <hyperlink ref="C95" r:id="rId190" display="https://leetcode.cn/problems/spiral-matrix-ii/description/"/>
+    <hyperlink ref="C108" r:id="rId191" display="https://leetcode.cn/problems/two-sum/description/"/>
+    <hyperlink ref="C109" r:id="rId192" display="https://leetcode.cn/problems/3sum/description/"/>
+    <hyperlink ref="C110" r:id="rId193" display="https://leetcode.cn/problems/4sum/description/"/>
+    <hyperlink ref="C106" r:id="rId194" display="https://leetcode.cn/problems/valid-anagram/description/"/>
+    <hyperlink ref="C107" r:id="rId195" display="https://leetcode.cn/problems/intersection-of-two-arrays/description/"/>
+    <hyperlink ref="C111" r:id="rId196" display="https://leetcode.cn/problems/4sum-ii/description/"/>
+    <hyperlink ref="C100" r:id="rId197" display="https://leetcode.cn/problems/remove-linked-list-elements/description/"/>
+    <hyperlink ref="C101" r:id="rId198" display="https://leetcode.cn/problems/design-linked-list/description/"/>
+    <hyperlink ref="C102" r:id="rId199" display="https://leetcode.cn/problems/reverse-linked-list/description/"/>
+    <hyperlink ref="C103" r:id="rId200" display="https://leetcode.cn/problems/swap-nodes-in-pairs/description/"/>
+    <hyperlink ref="C104" r:id="rId201" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/"/>
+    <hyperlink ref="C105" r:id="rId202" display="https://leetcode.cn/problems/linked-list-cycle-ii/description/"/>
+    <hyperlink ref="C112" r:id="rId203" display="https://leetcode.cn/problems/binary-tree-preorder-traversal/description/"/>
+    <hyperlink ref="C113" r:id="rId204" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/description/"/>
+    <hyperlink ref="C114" r:id="rId205" display="https://leetcode.cn/problems/binary-tree-postorder-traversal/description/"/>
+    <hyperlink ref="C115" r:id="rId206" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/description/"/>
+    <hyperlink ref="C116" r:id="rId207" display="https://leetcode.cn/problems/binary-tree-level-order-traversal-ii/description/"/>
+    <hyperlink ref="C117" r:id="rId208" display="https://leetcode.cn/problems/invert-binary-tree/description/"/>
+    <hyperlink ref="C118" r:id="rId209" display="https://leetcode.cn/problems/symmetric-tree/description/"/>
+    <hyperlink ref="C158" r:id="rId210" display="https://leetcode.cn/problems/longest-palindromic-substring/description/"/>
+    <hyperlink ref="C155" r:id="rId211" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/description/"/>
+    <hyperlink ref="C161" r:id="rId212" display="https://leetcode.cn/problems/split-array-largest-sum/description/"/>
+    <hyperlink ref="C121" r:id="rId213" display="https://leetcode.cn/problems/count-complete-tree-nodes/description/"/>
+    <hyperlink ref="C122" r:id="rId214" display="https://leetcode.cn/problems/balanced-binary-tree/description/"/>
+    <hyperlink ref="C119" r:id="rId215" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/description/"/>
+    <hyperlink ref="C120" r:id="rId216" display="https://leetcode.cn/problems/minimum-depth-of-binary-tree/description/"/>
+    <hyperlink ref="C123" r:id="rId217" display="https://leetcode.cn/problems/binary-tree-paths/description/"/>
+    <hyperlink ref="C124" r:id="rId218" display="https://leetcode.cn/problems/sum-of-left-leaves/description/"/>
+    <hyperlink ref="C125" r:id="rId219" display="https://leetcode.cn/problems/find-bottom-left-tree-value/description/"/>
+    <hyperlink ref="C126" r:id="rId220" display="https://leetcode.cn/problems/path-sum/description/"/>
+    <hyperlink ref="C128" r:id="rId221" display="https://leetcode.cn/problems/maximum-binary-tree/description/"/>
+    <hyperlink ref="C129" r:id="rId222" display="https://leetcode.cn/problems/merge-two-binary-trees/description/"/>
+    <hyperlink ref="C127" r:id="rId223" display="https://leetcode.cn/problems/construct-binary-tree-from-inorder-and-postorder-traversal/description/"/>
+    <hyperlink ref="C130" r:id="rId224" display="https://leetcode.cn/problems/search-in-a-binary-search-tree/description/"/>
+    <hyperlink ref="C131" r:id="rId225" display="https://leetcode.cn/problems/validate-binary-search-tree/description/"/>
+    <hyperlink ref="C132" r:id="rId226" display="https://leetcode.cn/problems/minimum-absolute-difference-in-bst/description/"/>
+    <hyperlink ref="C133" r:id="rId227" display="https://leetcode.cn/problems/find-mode-in-binary-search-tree/description/"/>
+    <hyperlink ref="C134" r:id="rId228" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/description/"/>
+    <hyperlink ref="C135" r:id="rId229" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-search-tree/description/"/>
+    <hyperlink ref="C140" r:id="rId230" display="https://leetcode.cn/problems/convert-bst-to-greater-tree/description/"/>
+    <hyperlink ref="C139" r:id="rId231" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/description/"/>
+    <hyperlink ref="C136" r:id="rId232" display="https://leetcode.cn/problems/insert-into-a-binary-search-tree/description/"/>
+    <hyperlink ref="C138" r:id="rId233" display="https://leetcode.cn/problems/trim-a-binary-search-tree/description/"/>
+    <hyperlink ref="C142" r:id="rId234" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/description/"/>
+    <hyperlink ref="C143" r:id="rId235" display="https://leetcode.cn/problems/search-insert-position/description/"/>
+    <hyperlink ref="C144" r:id="rId236" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array-ii/description/"/>
+    <hyperlink ref="C147" r:id="rId237" display="https://leetcode.cn/problems/sorted-matrix-search-lcci/description/"/>
+    <hyperlink ref="C148" r:id="rId238" display="https://leetcode.cn/problems/kth-smallest-element-in-a-sorted-matrix/description/"/>
+    <hyperlink ref="B145" r:id="rId239" display="81. 搜索旋转排序数组 II" tooltip="https://leetcode.cn/problems/search-in-rotated-sorted-array-ii"/>
+    <hyperlink ref="C150" r:id="rId240" display="https://leetcode.cn/problems/insert-interval/description/"/>
+    <hyperlink ref="C153" r:id="rId241" display="https://leetcode.cn/problems/single-element-in-a-sorted-array/description/"/>
+    <hyperlink ref="C151" r:id="rId242" display="https://leetcode.cn/problems/find-peak-element/description/"/>
+    <hyperlink ref="C152" r:id="rId243" display="https://leetcode.cn/problems/powx-n/description/"/>
+    <hyperlink ref="C149" r:id="rId244" display="https://leetcode.cn/problems/find-the-duplicate-number/description/"/>
+    <hyperlink ref="C145" r:id="rId245" display="https://leetcode.cn/problems/search-in-rotated-sorted-array-ii/description/"/>
+    <hyperlink ref="C146" r:id="rId246" display="https://leetcode.cn/problems/sqrtx/description/"/>
+    <hyperlink ref="C154" r:id="rId247" display="https://leetcode.cn/problems/shu-zu-zhong-de-ni-xu-dui-lcof/description/"/>
+    <hyperlink ref="B162" r:id="rId248" display="23. 合并 K 个升序链表" tooltip="https://leetcode.cn/problems/merge-k-sorted-lists"/>
+    <hyperlink ref="C5" r:id="rId158" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/description/"/>
+    <hyperlink ref="C89" r:id="rId249" display="https://leetcode.cn/problems/n-queens/description/"/>
+    <hyperlink ref="C90" r:id="rId250" display="https://leetcode.cn/problems/sudoku-solver/description/"/>
+    <hyperlink ref="C68" r:id="rId251" display="https://leetcode.cn/problems/top-k-frequent-elements/description/"/>
+    <hyperlink ref="C69" r:id="rId252" display="https://leetcode.cn/problems/bao-han-minhan-shu-de-zhan-lcof/description/"/>
+    <hyperlink ref="C70" r:id="rId253" display="https://leetcode.cn/problems/sort-of-stacks-lcci/description/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4661,13 +5303,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1"/>
+  <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="24.5192307692308" customWidth="1"/>
     <col min="2" max="2" width="69.7019230769231" customWidth="1"/>
@@ -4675,7 +5317,22 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
-        <v>338</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/week_report_2024/刷题.xlsx
+++ b/week_report_2024/刷题.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14040"/>
+    <workbookView windowWidth="19420" windowHeight="11200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$162</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="378">
   <si>
     <t>分类</t>
   </si>
@@ -2005,12 +2006,87 @@
   </si>
   <si>
     <t>https://leetcode.cn/studyplan/cracking-the-coding-interview/</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>岗位</t>
+  </si>
+  <si>
+    <t>创业</t>
+  </si>
+  <si>
+    <t>智谱</t>
+  </si>
+  <si>
+    <t>百川</t>
+  </si>
+  <si>
+    <t>零一</t>
+  </si>
+  <si>
+    <t>月之暗面</t>
+  </si>
+  <si>
+    <t>幻方</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>字节</t>
+  </si>
+  <si>
+    <t>阿里</t>
+  </si>
+  <si>
+    <t>小红书</t>
+  </si>
+  <si>
+    <t>拼多多</t>
+  </si>
+  <si>
+    <t>外企</t>
+  </si>
+  <si>
+    <t>微软</t>
+  </si>
+  <si>
+    <t>亚马逊</t>
+  </si>
+  <si>
+    <t>英伟达</t>
+  </si>
+  <si>
+    <t>国企</t>
+  </si>
+  <si>
+    <t>电信</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>练手</t>
+  </si>
+  <si>
+    <t>昆仑</t>
+  </si>
+  <si>
+    <t>腾讯</t>
+  </si>
+  <si>
+    <t>快手</t>
+  </si>
+  <si>
+    <t>中信银行</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2064,14 +2140,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2085,8 +2154,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2102,7 +2179,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2110,14 +2187,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2131,23 +2209,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2168,17 +2239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2190,13 +2252,33 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2212,7 +2294,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2224,175 +2468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2403,33 +2485,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2448,6 +2503,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2459,17 +2532,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2503,166 +2565,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2672,69 +2763,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3005,8 +3093,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -3035,32 +3123,32 @@
       </c>
     </row>
     <row r="2" hidden="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
@@ -3068,17 +3156,17 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
@@ -3086,8 +3174,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
@@ -3095,8 +3183,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
@@ -3104,8 +3192,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
@@ -3113,8 +3201,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
@@ -3122,8 +3210,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
@@ -3131,8 +3219,8 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
@@ -3140,8 +3228,8 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
@@ -3149,8 +3237,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
@@ -3158,8 +3246,8 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
@@ -3167,11 +3255,11 @@
       </c>
     </row>
     <row r="16" hidden="1" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
@@ -3179,8 +3267,8 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
@@ -3188,8 +3276,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="s">
@@ -3197,13 +3285,13 @@
       </c>
     </row>
     <row r="19" hidden="1" spans="1:5">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D19" t="s">
@@ -3214,11 +3302,11 @@
       </c>
     </row>
     <row r="20" hidden="1" spans="1:5">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D20" t="s">
@@ -3229,26 +3317,26 @@
       </c>
     </row>
     <row r="21" hidden="1" spans="1:5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" hidden="1" spans="1:5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D22" t="s">
@@ -3259,11 +3347,11 @@
       </c>
     </row>
     <row r="23" hidden="1" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D23" t="s">
@@ -3274,192 +3362,192 @@
       </c>
     </row>
     <row r="24" hidden="1" spans="1:5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="1:5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" hidden="1" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" hidden="1" spans="1:5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" hidden="1" spans="1:5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:5">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:5">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" hidden="1" spans="1:5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" hidden="1" spans="1:5">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:5">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" hidden="1" spans="1:5">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="1"/>
+      <c r="B34" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" hidden="1" spans="1:5">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" hidden="1" spans="1:5">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="1"/>
+      <c r="B36" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" hidden="1" spans="1:4">
-      <c r="A37" s="2"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D37" t="s">
@@ -3467,280 +3555,280 @@
       </c>
     </row>
     <row r="38" hidden="1" spans="1:5">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="1"/>
+      <c r="B38" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" hidden="1" spans="1:5">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" hidden="1" spans="1:5">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" hidden="1" spans="1:5">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>92</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:5">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" hidden="1" spans="1:5">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>98</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:5">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="1"/>
+      <c r="B44" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="6"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" hidden="1" spans="1:5">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="6"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" hidden="1" spans="1:5">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="1"/>
+      <c r="B46" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="5" t="s">
         <v>105</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="6"/>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" hidden="1" spans="1:5">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="1"/>
+      <c r="B47" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="9"/>
     </row>
     <row r="48" hidden="1" spans="1:5">
-      <c r="A48" s="2"/>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" hidden="1" spans="1:5">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="1"/>
+      <c r="B49" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="6"/>
+      <c r="E49" s="9"/>
     </row>
     <row r="50" hidden="1" spans="1:5">
-      <c r="A50" s="2"/>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="1"/>
+      <c r="B50" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="6"/>
+      <c r="E50" s="9"/>
     </row>
     <row r="51" hidden="1" spans="1:5">
-      <c r="A51" s="2"/>
-      <c r="B51" s="4" t="s">
+      <c r="A51" s="1"/>
+      <c r="B51" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52" hidden="1" spans="1:5">
-      <c r="A52" s="2"/>
-      <c r="B52" s="4" t="s">
+      <c r="A52" s="1"/>
+      <c r="B52" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>116</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" hidden="1" spans="1:5">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="1"/>
+      <c r="B53" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>118</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="54" hidden="1" spans="1:5">
-      <c r="A54" s="2"/>
-      <c r="B54" s="4" t="s">
+      <c r="A54" s="1"/>
+      <c r="B54" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="6"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="55" hidden="1" spans="1:5">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="1"/>
+      <c r="B55" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="6"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" hidden="1" spans="1:5">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="1"/>
+      <c r="B56" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="5" t="s">
         <v>125</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="6"/>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" hidden="1" spans="1:5">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="1"/>
+      <c r="B57" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="1"/>
+      <c r="B58" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C58" t="s">
@@ -3748,38 +3836,38 @@
       </c>
     </row>
     <row r="59" hidden="1" spans="1:5">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="1"/>
+      <c r="B59" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:5">
-      <c r="A60" s="2"/>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="1"/>
+      <c r="B60" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="5" t="s">
         <v>133</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3" t="s">
+      <c r="A61" s="1"/>
+      <c r="B61" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C61" t="s">
@@ -3787,13 +3875,13 @@
       </c>
     </row>
     <row r="62" hidden="1" spans="1:4">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D62" t="s">
@@ -3801,11 +3889,11 @@
       </c>
     </row>
     <row r="63" hidden="1" spans="1:5">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3" t="s">
+      <c r="A63" s="1"/>
+      <c r="B63" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="5" t="s">
         <v>140</v>
       </c>
       <c r="D63" t="s">
@@ -3816,11 +3904,11 @@
       </c>
     </row>
     <row r="64" hidden="1" spans="1:5">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="1"/>
+      <c r="B64" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>142</v>
       </c>
       <c r="D64" t="s">
@@ -3831,11 +3919,11 @@
       </c>
     </row>
     <row r="65" hidden="1" spans="1:4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="4" t="s">
+      <c r="A65" s="1"/>
+      <c r="B65" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="5" t="s">
         <v>144</v>
       </c>
       <c r="D65" t="s">
@@ -3843,11 +3931,11 @@
       </c>
     </row>
     <row r="66" hidden="1" spans="1:4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="4" t="s">
+      <c r="A66" s="1"/>
+      <c r="B66" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="5" t="s">
         <v>146</v>
       </c>
       <c r="D66" t="s">
@@ -3855,59 +3943,59 @@
       </c>
     </row>
     <row r="67" hidden="1" spans="1:4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="1"/>
+      <c r="B67" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3" t="s">
+    <row r="68" hidden="1" spans="1:4">
+      <c r="A68" s="1"/>
+      <c r="B68" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2"/>
-      <c r="B69" s="3" t="s">
+    <row r="69" hidden="1" spans="1:4">
+      <c r="A69" s="1"/>
+      <c r="B69" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2"/>
-      <c r="B70" s="3" t="s">
+    <row r="70" hidden="1" spans="1:4">
+      <c r="A70" s="1"/>
+      <c r="B70" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="5" t="s">
         <v>154</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3" t="s">
+    <row r="71" hidden="1" spans="1:4">
+      <c r="A71" s="1"/>
+      <c r="B71" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="5" t="s">
         <v>156</v>
       </c>
       <c r="D71" t="s">
@@ -3915,28 +4003,28 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="3" t="s">
+      <c r="A73" s="1"/>
+      <c r="B73" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="1"/>
+      <c r="B74" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C74" t="s">
@@ -3944,8 +4032,8 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3" t="s">
+      <c r="A75" s="1"/>
+      <c r="B75" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C75" t="s">
@@ -3953,8 +4041,8 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3" t="s">
+      <c r="A76" s="1"/>
+      <c r="B76" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C76" t="s">
@@ -3962,13 +4050,13 @@
       </c>
     </row>
     <row r="77" hidden="1" spans="1:4">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="5" t="s">
         <v>170</v>
       </c>
       <c r="D77" t="s">
@@ -3976,11 +4064,11 @@
       </c>
     </row>
     <row r="78" hidden="1" spans="1:4">
-      <c r="A78" s="2"/>
-      <c r="B78" s="3" t="s">
+      <c r="A78" s="1"/>
+      <c r="B78" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="5" t="s">
         <v>172</v>
       </c>
       <c r="D78" t="s">
@@ -3988,11 +4076,11 @@
       </c>
     </row>
     <row r="79" hidden="1" spans="1:4">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3" t="s">
+      <c r="A79" s="1"/>
+      <c r="B79" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D79" t="s">
@@ -4000,11 +4088,11 @@
       </c>
     </row>
     <row r="80" hidden="1" spans="1:4">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3" t="s">
+      <c r="A80" s="1"/>
+      <c r="B80" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="5" t="s">
         <v>176</v>
       </c>
       <c r="D80" t="s">
@@ -4012,11 +4100,11 @@
       </c>
     </row>
     <row r="81" customFormat="1" hidden="1" spans="1:4">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3" t="s">
+      <c r="A81" s="1"/>
+      <c r="B81" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="5" t="s">
         <v>178</v>
       </c>
       <c r="D81" t="s">
@@ -4024,11 +4112,11 @@
       </c>
     </row>
     <row r="82" hidden="1" spans="1:5">
-      <c r="A82" s="2"/>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="1"/>
+      <c r="B82" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D82" t="s">
@@ -4039,11 +4127,11 @@
       </c>
     </row>
     <row r="83" hidden="1" spans="1:4">
-      <c r="A83" s="2"/>
-      <c r="B83" s="4" t="s">
+      <c r="A83" s="1"/>
+      <c r="B83" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="5" t="s">
         <v>182</v>
       </c>
       <c r="D83" t="s">
@@ -4051,11 +4139,11 @@
       </c>
     </row>
     <row r="84" hidden="1" spans="1:4">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3" t="s">
+      <c r="A84" s="1"/>
+      <c r="B84" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D84" t="s">
@@ -4063,11 +4151,11 @@
       </c>
     </row>
     <row r="85" hidden="1" spans="1:4">
-      <c r="A85" s="2"/>
-      <c r="B85" s="3" t="s">
+      <c r="A85" s="1"/>
+      <c r="B85" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="5" t="s">
         <v>186</v>
       </c>
       <c r="D85" t="s">
@@ -4075,20 +4163,20 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="2"/>
-      <c r="B86" s="3" t="s">
+      <c r="A86" s="1"/>
+      <c r="B86" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="87" hidden="1" spans="1:4">
-      <c r="A87" s="2"/>
-      <c r="B87" s="3" t="s">
+      <c r="A87" s="1"/>
+      <c r="B87" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="5" t="s">
         <v>190</v>
       </c>
       <c r="D87" t="s">
@@ -4096,40 +4184,40 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="2"/>
-      <c r="B88" s="3" t="s">
+      <c r="A88" s="1"/>
+      <c r="B88" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3" t="s">
+      <c r="A89" s="1"/>
+      <c r="B89" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3" t="s">
+      <c r="A90" s="1"/>
+      <c r="B90" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="11" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="91" hidden="1" spans="1:4">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="5" t="s">
         <v>199</v>
       </c>
       <c r="D91" t="s">
@@ -4137,11 +4225,11 @@
       </c>
     </row>
     <row r="92" hidden="1" spans="1:4">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3" t="s">
+      <c r="A92" s="1"/>
+      <c r="B92" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="5" t="s">
         <v>201</v>
       </c>
       <c r="D92" t="s">
@@ -4149,11 +4237,11 @@
       </c>
     </row>
     <row r="93" hidden="1" spans="1:4">
-      <c r="A93" s="2"/>
-      <c r="B93" s="3" t="s">
+      <c r="A93" s="1"/>
+      <c r="B93" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="5" t="s">
         <v>203</v>
       </c>
       <c r="D93" t="s">
@@ -4161,11 +4249,11 @@
       </c>
     </row>
     <row r="94" hidden="1" spans="1:5">
-      <c r="A94" s="2"/>
-      <c r="B94" s="3" t="s">
+      <c r="A94" s="1"/>
+      <c r="B94" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="5" t="s">
         <v>205</v>
       </c>
       <c r="D94" t="s">
@@ -4176,22 +4264,22 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="2"/>
-      <c r="B95" s="3" t="s">
+      <c r="A95" s="1"/>
+      <c r="B95" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="96" hidden="1" spans="1:4">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="5" t="s">
         <v>210</v>
       </c>
       <c r="D96" t="s">
@@ -4199,11 +4287,11 @@
       </c>
     </row>
     <row r="97" hidden="1" spans="1:4">
-      <c r="A97" s="2"/>
-      <c r="B97" s="4" t="s">
+      <c r="A97" s="1"/>
+      <c r="B97" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="5" t="s">
         <v>212</v>
       </c>
       <c r="D97" t="s">
@@ -4211,11 +4299,11 @@
       </c>
     </row>
     <row r="98" hidden="1" spans="1:4">
-      <c r="A98" s="2"/>
-      <c r="B98" s="4" t="s">
+      <c r="A98" s="1"/>
+      <c r="B98" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="5" t="s">
         <v>214</v>
       </c>
       <c r="D98" t="s">
@@ -4223,11 +4311,11 @@
       </c>
     </row>
     <row r="99" hidden="1" spans="1:5">
-      <c r="A99" s="2"/>
-      <c r="B99" s="4" t="s">
+      <c r="A99" s="1"/>
+      <c r="B99" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="5" t="s">
         <v>216</v>
       </c>
       <c r="D99" t="s">
@@ -4238,13 +4326,13 @@
       </c>
     </row>
     <row r="100" hidden="1" spans="1:4">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="5" t="s">
         <v>219</v>
       </c>
       <c r="D100" t="s">
@@ -4252,11 +4340,11 @@
       </c>
     </row>
     <row r="101" hidden="1" spans="1:4">
-      <c r="A101" s="2"/>
-      <c r="B101" s="3" t="s">
+      <c r="A101" s="1"/>
+      <c r="B101" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="5" t="s">
         <v>221</v>
       </c>
       <c r="D101" t="s">
@@ -4264,11 +4352,11 @@
       </c>
     </row>
     <row r="102" hidden="1" spans="1:4">
-      <c r="A102" s="2"/>
-      <c r="B102" s="3" t="s">
+      <c r="A102" s="1"/>
+      <c r="B102" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="5" t="s">
         <v>223</v>
       </c>
       <c r="D102" t="s">
@@ -4276,11 +4364,11 @@
       </c>
     </row>
     <row r="103" hidden="1" spans="1:5">
-      <c r="A103" s="2"/>
-      <c r="B103" s="4" t="s">
+      <c r="A103" s="1"/>
+      <c r="B103" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="5" t="s">
         <v>225</v>
       </c>
       <c r="D103" t="s">
@@ -4291,11 +4379,11 @@
       </c>
     </row>
     <row r="104" hidden="1" spans="1:4">
-      <c r="A104" s="2"/>
-      <c r="B104" s="4" t="s">
+      <c r="A104" s="1"/>
+      <c r="B104" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="5" t="s">
         <v>227</v>
       </c>
       <c r="D104" t="s">
@@ -4303,11 +4391,11 @@
       </c>
     </row>
     <row r="105" hidden="1" spans="1:4">
-      <c r="A105" s="2"/>
-      <c r="B105" s="3" t="s">
+      <c r="A105" s="1"/>
+      <c r="B105" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D105" t="s">
@@ -4315,13 +4403,13 @@
       </c>
     </row>
     <row r="106" hidden="1" spans="1:5">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="5" t="s">
         <v>232</v>
       </c>
       <c r="D106" t="s">
@@ -4332,11 +4420,11 @@
       </c>
     </row>
     <row r="107" hidden="1" spans="1:5">
-      <c r="A107" s="2"/>
-      <c r="B107" s="3" t="s">
+      <c r="A107" s="1"/>
+      <c r="B107" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="5" t="s">
         <v>234</v>
       </c>
       <c r="D107" t="s">
@@ -4347,11 +4435,11 @@
       </c>
     </row>
     <row r="108" hidden="1" spans="1:4">
-      <c r="A108" s="2"/>
-      <c r="B108" s="3" t="s">
+      <c r="A108" s="1"/>
+      <c r="B108" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="5" t="s">
         <v>236</v>
       </c>
       <c r="D108" t="s">
@@ -4359,11 +4447,11 @@
       </c>
     </row>
     <row r="109" hidden="1" spans="1:5">
-      <c r="A109" s="2"/>
-      <c r="B109" s="3" t="s">
+      <c r="A109" s="1"/>
+      <c r="B109" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="5" t="s">
         <v>238</v>
       </c>
       <c r="D109" t="s">
@@ -4374,11 +4462,11 @@
       </c>
     </row>
     <row r="110" hidden="1" spans="1:5">
-      <c r="A110" s="2"/>
-      <c r="B110" s="3" t="s">
+      <c r="A110" s="1"/>
+      <c r="B110" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="5" t="s">
         <v>240</v>
       </c>
       <c r="D110" t="s">
@@ -4389,11 +4477,11 @@
       </c>
     </row>
     <row r="111" hidden="1" spans="1:5">
-      <c r="A111" s="2"/>
-      <c r="B111" s="4" t="s">
+      <c r="A111" s="1"/>
+      <c r="B111" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="5" t="s">
         <v>242</v>
       </c>
       <c r="D111" t="s">
@@ -4404,13 +4492,13 @@
       </c>
     </row>
     <row r="112" hidden="1" spans="1:5">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="5" t="s">
         <v>245</v>
       </c>
       <c r="D112" t="s">
@@ -4421,11 +4509,11 @@
       </c>
     </row>
     <row r="113" hidden="1" spans="1:5">
-      <c r="A113" s="2"/>
-      <c r="B113" s="3" t="s">
+      <c r="A113" s="1"/>
+      <c r="B113" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="5" t="s">
         <v>248</v>
       </c>
       <c r="D113" t="s">
@@ -4436,11 +4524,11 @@
       </c>
     </row>
     <row r="114" hidden="1" spans="1:5">
-      <c r="A114" s="2"/>
-      <c r="B114" s="3" t="s">
+      <c r="A114" s="1"/>
+      <c r="B114" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D114" t="s">
@@ -4451,11 +4539,11 @@
       </c>
     </row>
     <row r="115" hidden="1" spans="1:4">
-      <c r="A115" s="2"/>
-      <c r="B115" s="3" t="s">
+      <c r="A115" s="1"/>
+      <c r="B115" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="5" t="s">
         <v>252</v>
       </c>
       <c r="D115" t="s">
@@ -4463,11 +4551,11 @@
       </c>
     </row>
     <row r="116" hidden="1" spans="1:4">
-      <c r="A116" s="2"/>
-      <c r="B116" s="3" t="s">
+      <c r="A116" s="1"/>
+      <c r="B116" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="5" t="s">
         <v>254</v>
       </c>
       <c r="D116" t="s">
@@ -4475,11 +4563,11 @@
       </c>
     </row>
     <row r="117" hidden="1" spans="1:4">
-      <c r="A117" s="2"/>
-      <c r="B117" s="4" t="s">
+      <c r="A117" s="1"/>
+      <c r="B117" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="5" t="s">
         <v>256</v>
       </c>
       <c r="D117" t="s">
@@ -4487,11 +4575,11 @@
       </c>
     </row>
     <row r="118" hidden="1" spans="1:4">
-      <c r="A118" s="2"/>
-      <c r="B118" s="3" t="s">
+      <c r="A118" s="1"/>
+      <c r="B118" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="5" t="s">
         <v>258</v>
       </c>
       <c r="D118" t="s">
@@ -4499,11 +4587,11 @@
       </c>
     </row>
     <row r="119" hidden="1" spans="1:4">
-      <c r="A119" s="2"/>
-      <c r="B119" s="3" t="s">
+      <c r="A119" s="1"/>
+      <c r="B119" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="5" t="s">
         <v>260</v>
       </c>
       <c r="D119" t="s">
@@ -4511,11 +4599,11 @@
       </c>
     </row>
     <row r="120" hidden="1" spans="1:4">
-      <c r="A120" s="2"/>
-      <c r="B120" s="3" t="s">
+      <c r="A120" s="1"/>
+      <c r="B120" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="5" t="s">
         <v>262</v>
       </c>
       <c r="D120" t="s">
@@ -4523,11 +4611,11 @@
       </c>
     </row>
     <row r="121" hidden="1" spans="1:5">
-      <c r="A121" s="2"/>
-      <c r="B121" s="3" t="s">
+      <c r="A121" s="1"/>
+      <c r="B121" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="5" t="s">
         <v>264</v>
       </c>
       <c r="D121" t="s">
@@ -4538,11 +4626,11 @@
       </c>
     </row>
     <row r="122" hidden="1" spans="1:5">
-      <c r="A122" s="2"/>
-      <c r="B122" s="3" t="s">
+      <c r="A122" s="1"/>
+      <c r="B122" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="5" t="s">
         <v>266</v>
       </c>
       <c r="D122" t="s">
@@ -4553,11 +4641,11 @@
       </c>
     </row>
     <row r="123" hidden="1" spans="1:5">
-      <c r="A123" s="2"/>
-      <c r="B123" s="3" t="s">
+      <c r="A123" s="1"/>
+      <c r="B123" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="5" t="s">
         <v>268</v>
       </c>
       <c r="D123" t="s">
@@ -4568,11 +4656,11 @@
       </c>
     </row>
     <row r="124" hidden="1" spans="1:4">
-      <c r="A124" s="2"/>
-      <c r="B124" s="4" t="s">
+      <c r="A124" s="1"/>
+      <c r="B124" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="5" t="s">
         <v>270</v>
       </c>
       <c r="D124" t="s">
@@ -4580,11 +4668,11 @@
       </c>
     </row>
     <row r="125" hidden="1" spans="1:4">
-      <c r="A125" s="2"/>
-      <c r="B125" s="4" t="s">
+      <c r="A125" s="1"/>
+      <c r="B125" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="5" t="s">
         <v>272</v>
       </c>
       <c r="D125" t="s">
@@ -4592,11 +4680,11 @@
       </c>
     </row>
     <row r="126" hidden="1" spans="1:4">
-      <c r="A126" s="2"/>
-      <c r="B126" s="3" t="s">
+      <c r="A126" s="1"/>
+      <c r="B126" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="5" t="s">
         <v>274</v>
       </c>
       <c r="D126" t="s">
@@ -4604,11 +4692,11 @@
       </c>
     </row>
     <row r="127" hidden="1" spans="1:4">
-      <c r="A127" s="2"/>
-      <c r="B127" s="3" t="s">
+      <c r="A127" s="1"/>
+      <c r="B127" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="5" t="s">
         <v>276</v>
       </c>
       <c r="D127" t="s">
@@ -4616,11 +4704,11 @@
       </c>
     </row>
     <row r="128" hidden="1" spans="1:4">
-      <c r="A128" s="2"/>
-      <c r="B128" s="4" t="s">
+      <c r="A128" s="1"/>
+      <c r="B128" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="5" t="s">
         <v>278</v>
       </c>
       <c r="D128" t="s">
@@ -4628,11 +4716,11 @@
       </c>
     </row>
     <row r="129" hidden="1" spans="1:4">
-      <c r="A129" s="2"/>
-      <c r="B129" s="4" t="s">
+      <c r="A129" s="1"/>
+      <c r="B129" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="5" t="s">
         <v>280</v>
       </c>
       <c r="D129" t="s">
@@ -4640,11 +4728,11 @@
       </c>
     </row>
     <row r="130" hidden="1" spans="1:4">
-      <c r="A130" s="2"/>
-      <c r="B130" s="4" t="s">
+      <c r="A130" s="1"/>
+      <c r="B130" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="5" t="s">
         <v>282</v>
       </c>
       <c r="D130" t="s">
@@ -4652,11 +4740,11 @@
       </c>
     </row>
     <row r="131" hidden="1" spans="1:5">
-      <c r="A131" s="2"/>
-      <c r="B131" s="3" t="s">
+      <c r="A131" s="1"/>
+      <c r="B131" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="5" t="s">
         <v>284</v>
       </c>
       <c r="D131" t="s">
@@ -4667,11 +4755,11 @@
       </c>
     </row>
     <row r="132" hidden="1" spans="1:4">
-      <c r="A132" s="2"/>
-      <c r="B132" s="4" t="s">
+      <c r="A132" s="1"/>
+      <c r="B132" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="5" t="s">
         <v>286</v>
       </c>
       <c r="D132" t="s">
@@ -4679,11 +4767,11 @@
       </c>
     </row>
     <row r="133" hidden="1" spans="1:4">
-      <c r="A133" s="2"/>
-      <c r="B133" s="4" t="s">
+      <c r="A133" s="1"/>
+      <c r="B133" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="5" t="s">
         <v>288</v>
       </c>
       <c r="D133" t="s">
@@ -4691,11 +4779,11 @@
       </c>
     </row>
     <row r="134" hidden="1" spans="1:5">
-      <c r="A134" s="2"/>
-      <c r="B134" s="3" t="s">
+      <c r="A134" s="1"/>
+      <c r="B134" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="5" t="s">
         <v>290</v>
       </c>
       <c r="D134" t="s">
@@ -4706,11 +4794,11 @@
       </c>
     </row>
     <row r="135" hidden="1" spans="1:4">
-      <c r="A135" s="2"/>
-      <c r="B135" s="3" t="s">
+      <c r="A135" s="1"/>
+      <c r="B135" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="5" t="s">
         <v>292</v>
       </c>
       <c r="D135" t="s">
@@ -4718,17 +4806,17 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="2"/>
-      <c r="B136" s="3" t="s">
+      <c r="A136" s="1"/>
+      <c r="B136" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="5" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="2"/>
-      <c r="B137" s="3" t="s">
+      <c r="A137" s="1"/>
+      <c r="B137" s="6" t="s">
         <v>295</v>
       </c>
       <c r="C137" t="s">
@@ -4736,11 +4824,11 @@
       </c>
     </row>
     <row r="138" hidden="1" spans="1:4">
-      <c r="A138" s="2"/>
-      <c r="B138" s="3" t="s">
+      <c r="A138" s="1"/>
+      <c r="B138" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="5" t="s">
         <v>298</v>
       </c>
       <c r="D138" t="s">
@@ -4748,11 +4836,11 @@
       </c>
     </row>
     <row r="139" hidden="1" spans="1:4">
-      <c r="A139" s="2"/>
-      <c r="B139" s="4" t="s">
+      <c r="A139" s="1"/>
+      <c r="B139" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="5" t="s">
         <v>300</v>
       </c>
       <c r="D139" t="s">
@@ -4760,17 +4848,17 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="2"/>
-      <c r="B140" s="3" t="s">
+      <c r="A140" s="1"/>
+      <c r="B140" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="5" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="2"/>
-      <c r="B141" s="3" t="s">
+      <c r="A141" s="1"/>
+      <c r="B141" s="6" t="s">
         <v>303</v>
       </c>
       <c r="C141" t="s">
@@ -4778,13 +4866,13 @@
       </c>
     </row>
     <row r="142" hidden="1" spans="1:5">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="5" t="s">
         <v>307</v>
       </c>
       <c r="D142" t="s">
@@ -4795,11 +4883,11 @@
       </c>
     </row>
     <row r="143" hidden="1" spans="1:4">
-      <c r="A143" s="2"/>
-      <c r="B143" s="3" t="s">
+      <c r="A143" s="1"/>
+      <c r="B143" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="5" t="s">
         <v>309</v>
       </c>
       <c r="D143" t="s">
@@ -4807,11 +4895,11 @@
       </c>
     </row>
     <row r="144" hidden="1" spans="1:4">
-      <c r="A144" s="2"/>
-      <c r="B144" s="3" t="s">
+      <c r="A144" s="1"/>
+      <c r="B144" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="5" t="s">
         <v>311</v>
       </c>
       <c r="D144" t="s">
@@ -4819,11 +4907,11 @@
       </c>
     </row>
     <row r="145" hidden="1" spans="1:5">
-      <c r="A145" s="2"/>
-      <c r="B145" s="9" t="s">
+      <c r="A145" s="1"/>
+      <c r="B145" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="5" t="s">
         <v>313</v>
       </c>
       <c r="D145" t="s">
@@ -4834,11 +4922,11 @@
       </c>
     </row>
     <row r="146" hidden="1" spans="1:4">
-      <c r="A146" s="2"/>
-      <c r="B146" s="3" t="s">
+      <c r="A146" s="1"/>
+      <c r="B146" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="5" t="s">
         <v>315</v>
       </c>
       <c r="D146" t="s">
@@ -4846,11 +4934,11 @@
       </c>
     </row>
     <row r="147" hidden="1" spans="1:4">
-      <c r="A147" s="2"/>
-      <c r="B147" s="3" t="s">
+      <c r="A147" s="1"/>
+      <c r="B147" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="5" t="s">
         <v>317</v>
       </c>
       <c r="D147" t="s">
@@ -4858,11 +4946,11 @@
       </c>
     </row>
     <row r="148" hidden="1" spans="1:5">
-      <c r="A148" s="2"/>
-      <c r="B148" s="3" t="s">
+      <c r="A148" s="1"/>
+      <c r="B148" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="5" t="s">
         <v>319</v>
       </c>
       <c r="D148" t="s">
@@ -4873,11 +4961,11 @@
       </c>
     </row>
     <row r="149" hidden="1" spans="1:5">
-      <c r="A149" s="2"/>
-      <c r="B149" s="3" t="s">
+      <c r="A149" s="1"/>
+      <c r="B149" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="5" t="s">
         <v>321</v>
       </c>
       <c r="D149" t="s">
@@ -4888,11 +4976,11 @@
       </c>
     </row>
     <row r="150" hidden="1" spans="1:4">
-      <c r="A150" s="2"/>
-      <c r="B150" s="3" t="s">
+      <c r="A150" s="1"/>
+      <c r="B150" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="5" t="s">
         <v>323</v>
       </c>
       <c r="D150" t="s">
@@ -4900,11 +4988,11 @@
       </c>
     </row>
     <row r="151" hidden="1" spans="1:4">
-      <c r="A151" s="2"/>
-      <c r="B151" s="3" t="s">
+      <c r="A151" s="1"/>
+      <c r="B151" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="5" t="s">
         <v>325</v>
       </c>
       <c r="D151" t="s">
@@ -4912,11 +5000,11 @@
       </c>
     </row>
     <row r="152" hidden="1" spans="1:5">
-      <c r="A152" s="2"/>
-      <c r="B152" s="3" t="s">
+      <c r="A152" s="1"/>
+      <c r="B152" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="5" t="s">
         <v>327</v>
       </c>
       <c r="D152" t="s">
@@ -4927,11 +5015,11 @@
       </c>
     </row>
     <row r="153" hidden="1" spans="1:4">
-      <c r="A153" s="2"/>
-      <c r="B153" s="3" t="s">
+      <c r="A153" s="1"/>
+      <c r="B153" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="5" t="s">
         <v>330</v>
       </c>
       <c r="D153" t="s">
@@ -4939,11 +5027,11 @@
       </c>
     </row>
     <row r="154" hidden="1" spans="1:4">
-      <c r="A154" s="2"/>
-      <c r="B154" s="3" t="s">
+      <c r="A154" s="1"/>
+      <c r="B154" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="5" t="s">
         <v>332</v>
       </c>
       <c r="D154" t="s">
@@ -4951,15 +5039,15 @@
       </c>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="11" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="6" t="s">
         <v>335</v>
       </c>
       <c r="C156" t="s">
@@ -4967,7 +5055,7 @@
       </c>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="7" t="s">
         <v>337</v>
       </c>
       <c r="C157" t="s">
@@ -4975,10 +5063,10 @@
       </c>
     </row>
     <row r="158" hidden="1" spans="2:4">
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="5" t="s">
         <v>340</v>
       </c>
       <c r="D158" t="s">
@@ -4986,7 +5074,7 @@
       </c>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="6" t="s">
         <v>341</v>
       </c>
       <c r="C159" t="s">
@@ -4994,7 +5082,7 @@
       </c>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="6" t="s">
         <v>343</v>
       </c>
       <c r="C160" t="s">
@@ -5002,15 +5090,15 @@
       </c>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="5" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="6" t="s">
         <v>347</v>
       </c>
       <c r="C162" t="s">
@@ -5294,6 +5382,8 @@
     <hyperlink ref="C68" r:id="rId251" display="https://leetcode.cn/problems/top-k-frequent-elements/description/"/>
     <hyperlink ref="C69" r:id="rId252" display="https://leetcode.cn/problems/bao-han-minhan-shu-de-zhan-lcof/description/"/>
     <hyperlink ref="C70" r:id="rId253" display="https://leetcode.cn/problems/sort-of-stacks-lcci/description/"/>
+    <hyperlink ref="C73" r:id="rId254" display="https://leetcode.cn/problems/next-greater-element-i/description/"/>
+    <hyperlink ref="C72" r:id="rId255" display="https://leetcode.cn/problems/daily-temperatures/description/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5316,12 +5406,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5342,4 +5432,160 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A20"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>